--- a/projects/test_building/input/Scenario_CoolingTechnology_Cost_Material.xlsx
+++ b/projects/test_building/input/Scenario_CoolingTechnology_Cost_Material.xlsx
@@ -5,14 +5,14 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yus\Documents\code\3E\RenderNew\projects\test_building\input\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace_sia\RenderNew\projects\test_building\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="1440" yWindow="1035" windowWidth="23865" windowHeight="13260"/>
+    <workbookView xWindow="1440" yWindow="1040" windowWidth="23870" windowHeight="13260"/>
   </bookViews>
   <sheets>
-    <sheet name="updated" sheetId="4" r:id="rId1"/>
+    <sheet name="Tabelle1" sheetId="4" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -575,13 +575,13 @@
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="21.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="34.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.26953125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="34.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -718,7 +718,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A2">
         <v>9</v>
       </c>
@@ -855,7 +855,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>9</v>
       </c>
@@ -992,7 +992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A4">
         <v>9</v>
       </c>
@@ -1129,7 +1129,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A5">
         <v>9</v>
       </c>
@@ -1266,7 +1266,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1403,7 +1403,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A7">
         <v>9</v>
       </c>
@@ -1540,7 +1540,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:45" x14ac:dyDescent="0.35">
       <c r="A8">
         <v>9</v>
       </c>
